--- a/Operations and signals.xlsx
+++ b/Operations and signals.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer arch\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928041E9-728B-4179-A462-2D6E6B5695A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96097A8-ED76-441B-B4E0-352E234204F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92BFB4CB-7E32-4F15-8AB2-3DAD09B28A34}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t xml:space="preserve">SETC  </t>
   </si>
@@ -174,13 +174,58 @@
   </si>
   <si>
     <t>WB</t>
+  </si>
+  <si>
+    <t>JMP_FLAG</t>
+  </si>
+  <si>
+    <t>Mem_src</t>
+  </si>
+  <si>
+    <t>Sp_inc</t>
+  </si>
+  <si>
+    <t>Sp_dec</t>
+  </si>
+  <si>
+    <t>Mem_W</t>
+  </si>
+  <si>
+    <t>OUT_signal</t>
+  </si>
+  <si>
+    <t>Alu_src</t>
+  </si>
+  <si>
+    <t>Alu_OP</t>
+  </si>
+  <si>
+    <t>Cin</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>M2R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SETC/CLRC </t>
+  </si>
+  <si>
+    <t>RET/RTI</t>
+  </si>
+  <si>
+    <t>depends-&gt;CF</t>
+  </si>
+  <si>
+    <t>depends-&gt;ZF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +282,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -270,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -306,11 +367,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,40 +428,55 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -693,518 +793,1698 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA7B554-3150-494C-8FC6-336058E8F0F8}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="56.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="5.88671875" style="23" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="3" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="56.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="19" customWidth="1"/>
+    <col min="8" max="19" width="12" style="19" customWidth="1"/>
+    <col min="20" max="20" width="18.21875" style="19" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" style="3" customWidth="1"/>
+    <col min="22" max="23" width="9.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="44.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="2" t="s">
+      <c r="E1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="27"/>
+      <c r="S1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23">
-        <v>0</v>
-      </c>
-      <c r="F2" s="23">
-        <v>0</v>
-      </c>
-      <c r="G2" s="23">
-        <v>0</v>
-      </c>
-      <c r="H2" s="23">
-        <v>0</v>
-      </c>
-      <c r="I2" s="23">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="C2" s="17">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0</v>
+      </c>
+      <c r="G2" s="17">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1</v>
+      </c>
+      <c r="K2" s="17">
+        <v>0</v>
+      </c>
+      <c r="L2" s="17">
+        <v>0</v>
+      </c>
+      <c r="M2" s="17">
+        <v>0</v>
+      </c>
+      <c r="N2" s="17">
+        <v>0</v>
+      </c>
+      <c r="O2" s="17">
+        <v>0</v>
+      </c>
+      <c r="P2" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>0</v>
+      </c>
+      <c r="R2" s="17">
+        <v>0</v>
+      </c>
+      <c r="S2" s="17">
+        <v>0</v>
+      </c>
+      <c r="T2" s="17">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-      <c r="F3" s="23">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="C3" s="17">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>1</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0</v>
+      </c>
+      <c r="L3" s="17">
+        <v>0</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19">
+        <v>1</v>
+      </c>
+      <c r="P3" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>0</v>
+      </c>
+      <c r="R3" s="19">
+        <v>0</v>
+      </c>
+      <c r="S3" s="17">
+        <v>0</v>
+      </c>
+      <c r="T3" s="19">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="21">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0</v>
+      </c>
+      <c r="N4" s="19">
+        <v>0</v>
+      </c>
+      <c r="O4" s="19">
+        <v>1</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>0</v>
+      </c>
+      <c r="R4" s="19">
+        <v>0</v>
+      </c>
+      <c r="S4" s="17">
+        <v>0</v>
+      </c>
+      <c r="T4" s="19">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="21">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23">
-        <v>1</v>
-      </c>
-      <c r="E5" s="23">
-        <v>1</v>
-      </c>
-      <c r="F5" s="23">
-        <v>1</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0</v>
+      </c>
+      <c r="L5" s="19">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>0</v>
+      </c>
+      <c r="R5" s="19">
+        <v>0</v>
+      </c>
+      <c r="S5" s="19">
+        <v>1</v>
+      </c>
+      <c r="T5" s="19">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+    </row>
+    <row r="6" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="21">
-        <v>0</v>
-      </c>
-      <c r="D6" s="23">
-        <v>1</v>
-      </c>
-      <c r="E6" s="23">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="C6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0</v>
+      </c>
+      <c r="L6" s="19">
+        <v>0</v>
+      </c>
+      <c r="M6" s="19">
+        <v>0</v>
+      </c>
+      <c r="N6" s="19">
+        <v>0</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>0</v>
+      </c>
+      <c r="R6" s="19">
+        <v>0</v>
+      </c>
+      <c r="S6" s="19">
+        <v>0</v>
+      </c>
+      <c r="T6" s="19">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="21">
-        <v>0</v>
-      </c>
-      <c r="D7" s="23">
-        <v>1</v>
-      </c>
-      <c r="E7" s="23">
-        <v>0</v>
-      </c>
-      <c r="F7" s="23">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>0</v>
+      </c>
+      <c r="R7" s="19">
+        <v>0</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0</v>
+      </c>
+      <c r="T7" s="19">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="21">
-        <v>0</v>
-      </c>
-      <c r="D8" s="23">
-        <v>1</v>
-      </c>
-      <c r="E8" s="23">
-        <v>1</v>
-      </c>
-      <c r="F8" s="23">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <v>1</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0</v>
+      </c>
+      <c r="L8" s="19">
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
+        <v>0</v>
+      </c>
+      <c r="N8" s="19">
+        <v>0</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0</v>
+      </c>
+      <c r="P8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>0</v>
+      </c>
+      <c r="R8" s="19">
+        <v>0</v>
+      </c>
+      <c r="S8" s="19">
+        <v>0</v>
+      </c>
+      <c r="T8" s="19">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="21">
-        <v>0</v>
-      </c>
-      <c r="D9" s="23">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23">
-        <v>0</v>
-      </c>
-      <c r="F9" s="23">
-        <v>0</v>
-      </c>
-      <c r="G9" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0</v>
+      </c>
+      <c r="M9" s="19">
+        <v>0</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0</v>
+      </c>
+      <c r="O9" s="19">
+        <v>0</v>
+      </c>
+      <c r="P9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>1</v>
+      </c>
+      <c r="R9" s="19">
+        <v>0</v>
+      </c>
+      <c r="S9" s="19">
+        <v>0</v>
+      </c>
+      <c r="T9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="21">
-        <v>0</v>
-      </c>
-      <c r="D10" s="23">
-        <v>1</v>
-      </c>
-      <c r="E10" s="23">
-        <v>0</v>
-      </c>
-      <c r="F10" s="23">
-        <v>0</v>
-      </c>
-      <c r="G10" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="22"/>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <v>1</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+      <c r="M10" s="19">
+        <v>0</v>
+      </c>
+      <c r="N10" s="19">
+        <v>0</v>
+      </c>
+      <c r="O10" s="19">
+        <v>0</v>
+      </c>
+      <c r="P10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>1</v>
+      </c>
+      <c r="R10" s="19">
+        <v>1</v>
+      </c>
+      <c r="S10" s="19">
+        <v>0</v>
+      </c>
+      <c r="T10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="21">
-        <v>1</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-    </row>
-    <row r="12" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19">
+        <v>0</v>
+      </c>
+      <c r="N11" s="19">
+        <v>1</v>
+      </c>
+      <c r="O11" s="19">
+        <v>0</v>
+      </c>
+      <c r="P11" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>0</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0</v>
+      </c>
+      <c r="S11" s="19">
+        <v>0</v>
+      </c>
+      <c r="T11" s="19">
+        <v>0</v>
+      </c>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+    </row>
+    <row r="12" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="21">
-        <v>0</v>
-      </c>
-      <c r="D12" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19">
+        <v>1</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0</v>
+      </c>
+      <c r="L12" s="19">
+        <v>0</v>
+      </c>
+      <c r="M12" s="19">
+        <v>0</v>
+      </c>
+      <c r="N12" s="19">
+        <v>0</v>
+      </c>
+      <c r="O12" s="19">
+        <v>0</v>
+      </c>
+      <c r="P12" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>0</v>
+      </c>
+      <c r="R12" s="19">
+        <v>0</v>
+      </c>
+      <c r="S12" s="19">
+        <v>0</v>
+      </c>
+      <c r="T12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="21">
-        <v>1</v>
-      </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="17">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
+        <v>1</v>
+      </c>
+      <c r="N13" s="19">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>0</v>
+      </c>
+      <c r="R13" s="19">
+        <v>0</v>
+      </c>
+      <c r="S13" s="19">
+        <v>0</v>
+      </c>
+      <c r="T13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20"/>
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
+        <v>1</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
+        <v>0</v>
+      </c>
+      <c r="N14" s="19">
+        <v>0</v>
+      </c>
+      <c r="O14" s="19">
+        <v>0</v>
+      </c>
+      <c r="P14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>0</v>
+      </c>
+      <c r="R14" s="19">
+        <v>0</v>
+      </c>
+      <c r="S14" s="19">
+        <v>0</v>
+      </c>
+      <c r="T14" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0</v>
+      </c>
+      <c r="L15" s="19">
+        <v>0</v>
+      </c>
+      <c r="M15" s="19">
+        <v>0</v>
+      </c>
+      <c r="N15" s="19">
+        <v>0</v>
+      </c>
+      <c r="O15" s="19">
+        <v>0</v>
+      </c>
+      <c r="P15" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>0</v>
+      </c>
+      <c r="R15" s="19">
+        <v>0</v>
+      </c>
+      <c r="S15" s="19">
+        <v>0</v>
+      </c>
+      <c r="T15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19">
+        <v>1</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19">
+        <v>1</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0</v>
+      </c>
+      <c r="K16" s="19">
+        <v>0</v>
+      </c>
+      <c r="L16" s="19">
+        <v>0</v>
+      </c>
+      <c r="M16" s="19">
+        <v>0</v>
+      </c>
+      <c r="N16" s="19">
+        <v>0</v>
+      </c>
+      <c r="O16" s="19">
+        <v>0</v>
+      </c>
+      <c r="P16" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>0</v>
+      </c>
+      <c r="R16" s="19">
+        <v>0</v>
+      </c>
+      <c r="S16" s="19">
+        <v>0</v>
+      </c>
+      <c r="T16" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="21">
-        <v>1</v>
-      </c>
-      <c r="D17" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
+        <v>1</v>
+      </c>
+      <c r="K17" s="19">
+        <v>0</v>
+      </c>
+      <c r="L17" s="19">
+        <v>0</v>
+      </c>
+      <c r="M17" s="19">
+        <v>1</v>
+      </c>
+      <c r="N17" s="19">
+        <v>0</v>
+      </c>
+      <c r="O17" s="19">
+        <v>0</v>
+      </c>
+      <c r="P17" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>0</v>
+      </c>
+      <c r="R17" s="19">
+        <v>0</v>
+      </c>
+      <c r="S17" s="19">
+        <v>0</v>
+      </c>
+      <c r="T17" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="21">
-        <v>1</v>
-      </c>
-      <c r="D18" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="17">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19">
+        <v>1</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19">
+        <v>0</v>
+      </c>
+      <c r="J18" s="19">
+        <v>1</v>
+      </c>
+      <c r="K18" s="19">
+        <v>0</v>
+      </c>
+      <c r="L18" s="19">
+        <v>0</v>
+      </c>
+      <c r="M18" s="19">
+        <v>0</v>
+      </c>
+      <c r="N18" s="19">
+        <v>1</v>
+      </c>
+      <c r="O18" s="19">
+        <v>0</v>
+      </c>
+      <c r="P18" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>0</v>
+      </c>
+      <c r="R18" s="19">
+        <v>0</v>
+      </c>
+      <c r="S18" s="19">
+        <v>0</v>
+      </c>
+      <c r="T18" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="21">
-        <v>1</v>
-      </c>
-      <c r="D19" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="20"/>
+      <c r="C19" s="17">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>0</v>
+      </c>
+      <c r="R19" s="19">
+        <v>0</v>
+      </c>
+      <c r="S19" s="19">
+        <v>0</v>
+      </c>
+      <c r="T19" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="21">
-        <v>1</v>
-      </c>
-      <c r="D20" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="20"/>
+      <c r="C20" s="17">
+        <v>0</v>
+      </c>
+      <c r="D20" s="19">
+        <v>1</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+      <c r="I20" s="19">
+        <v>0</v>
+      </c>
+      <c r="J20" s="19">
+        <v>1</v>
+      </c>
+      <c r="K20" s="19">
+        <v>0</v>
+      </c>
+      <c r="L20" s="19">
+        <v>0</v>
+      </c>
+      <c r="M20" s="19">
+        <v>0</v>
+      </c>
+      <c r="N20" s="19">
+        <v>0</v>
+      </c>
+      <c r="O20" s="19">
+        <v>0</v>
+      </c>
+      <c r="P20" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>0</v>
+      </c>
+      <c r="R20" s="19">
+        <v>0</v>
+      </c>
+      <c r="S20" s="19">
+        <v>0</v>
+      </c>
+      <c r="T20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="20"/>
+      <c r="C21" s="17">
+        <v>0</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
+      <c r="G21" s="19">
+        <v>0</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+      <c r="J21" s="19">
+        <v>1</v>
+      </c>
+      <c r="K21" s="19">
+        <v>0</v>
+      </c>
+      <c r="L21" s="19">
+        <v>1</v>
+      </c>
+      <c r="M21" s="19">
+        <v>0</v>
+      </c>
+      <c r="N21" s="19">
+        <v>0</v>
+      </c>
+      <c r="O21" s="19">
+        <v>0</v>
+      </c>
+      <c r="P21" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>0</v>
+      </c>
+      <c r="R21" s="19">
+        <v>0</v>
+      </c>
+      <c r="S21" s="19">
+        <v>0</v>
+      </c>
+      <c r="T21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="21">
-        <v>1</v>
-      </c>
-      <c r="D22" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="20"/>
+      <c r="C22" s="17">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0</v>
+      </c>
+      <c r="I22" s="19">
+        <v>0</v>
+      </c>
+      <c r="J22" s="19">
+        <v>0</v>
+      </c>
+      <c r="K22" s="19">
+        <v>0</v>
+      </c>
+      <c r="L22" s="19">
+        <v>1</v>
+      </c>
+      <c r="M22" s="19">
+        <v>0</v>
+      </c>
+      <c r="N22" s="19">
+        <v>0</v>
+      </c>
+      <c r="O22" s="19">
+        <v>0</v>
+      </c>
+      <c r="P22" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>0</v>
+      </c>
+      <c r="R22" s="19">
+        <v>0</v>
+      </c>
+      <c r="S22" s="19">
+        <v>0</v>
+      </c>
+      <c r="T22" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="21">
-        <v>1</v>
-      </c>
-      <c r="D23" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="20"/>
+      <c r="C23" s="17">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0</v>
+      </c>
+      <c r="I23" s="19">
+        <v>0</v>
+      </c>
+      <c r="J23" s="19">
+        <v>0</v>
+      </c>
+      <c r="K23" s="19">
+        <v>1</v>
+      </c>
+      <c r="L23" s="19">
+        <v>0</v>
+      </c>
+      <c r="M23" s="19">
+        <v>0</v>
+      </c>
+      <c r="N23" s="19">
+        <v>0</v>
+      </c>
+      <c r="O23" s="19">
+        <v>0</v>
+      </c>
+      <c r="P23" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>0</v>
+      </c>
+      <c r="R23" s="19">
+        <v>0</v>
+      </c>
+      <c r="S23" s="19">
+        <v>0</v>
+      </c>
+      <c r="T23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="21">
-        <v>1</v>
-      </c>
-      <c r="D24" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="20"/>
+      <c r="C24" s="17">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1</v>
+      </c>
+      <c r="E24" s="19">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19">
+        <v>0</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0</v>
+      </c>
+      <c r="J24" s="19">
+        <v>0</v>
+      </c>
+      <c r="K24" s="19">
+        <v>1</v>
+      </c>
+      <c r="L24" s="19">
+        <v>1</v>
+      </c>
+      <c r="M24" s="19">
+        <v>0</v>
+      </c>
+      <c r="N24" s="19">
+        <v>0</v>
+      </c>
+      <c r="O24" s="19">
+        <v>0</v>
+      </c>
+      <c r="P24" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>0</v>
+      </c>
+      <c r="R24" s="19">
+        <v>0</v>
+      </c>
+      <c r="S24" s="19">
+        <v>0</v>
+      </c>
+      <c r="T24" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="21">
-        <v>1</v>
-      </c>
-      <c r="D25" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="20"/>
+      <c r="C25" s="17">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0</v>
+      </c>
+      <c r="F25" s="19">
+        <v>0</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0</v>
+      </c>
+      <c r="I25" s="19">
+        <v>0</v>
+      </c>
+      <c r="J25" s="19">
+        <v>1</v>
+      </c>
+      <c r="K25" s="19">
+        <v>1</v>
+      </c>
+      <c r="L25" s="19">
+        <v>0</v>
+      </c>
+      <c r="M25" s="19">
+        <v>0</v>
+      </c>
+      <c r="N25" s="19">
+        <v>0</v>
+      </c>
+      <c r="O25" s="19">
+        <v>0</v>
+      </c>
+      <c r="P25" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="19">
+        <v>0</v>
+      </c>
+      <c r="R25" s="19">
+        <v>0</v>
+      </c>
+      <c r="S25" s="19">
+        <v>0</v>
+      </c>
+      <c r="T25" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="21">
-        <v>1</v>
-      </c>
-      <c r="D26" s="23">
-        <v>1</v>
+      <c r="B26" s="20"/>
+      <c r="C26" s="17">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19">
+        <v>0</v>
+      </c>
+      <c r="J26" s="19">
+        <v>1</v>
+      </c>
+      <c r="K26" s="19">
+        <v>1</v>
+      </c>
+      <c r="L26" s="19">
+        <v>1</v>
+      </c>
+      <c r="M26" s="19">
+        <v>0</v>
+      </c>
+      <c r="N26" s="19">
+        <v>0</v>
+      </c>
+      <c r="O26" s="19">
+        <v>0</v>
+      </c>
+      <c r="P26" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>0</v>
+      </c>
+      <c r="R26" s="19">
+        <v>0</v>
+      </c>
+      <c r="S26" s="19">
+        <v>0</v>
+      </c>
+      <c r="T26" s="19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B26"/>
     <mergeCell ref="B13:B14"/>
